--- a/database/industries/folad/fejahan/cost/yearly.xlsx
+++ b/database/industries/folad/fejahan/cost/yearly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\folad\fejahan\cost\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\folad\fejahan\cost\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94D5C9FD-F701-4A7E-8699-4D6C5B4F0B46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD63AE02-5E9C-4A9D-B3F0-9B9681505689}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -650,12 +650,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="9" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -665,7 +665,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -677,7 +677,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -689,7 +689,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -699,7 +699,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="5" spans="2:9" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -711,7 +711,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="6" spans="2:9" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -723,7 +723,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -733,7 +733,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>3</v>
       </c>
@@ -755,7 +755,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -765,7 +765,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
         <v>9</v>
       </c>
@@ -787,7 +787,7 @@
         <v>64459074</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
         <v>10</v>
       </c>
@@ -809,7 +809,7 @@
         <v>6677280</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B12" s="8" t="s">
         <v>11</v>
       </c>
@@ -831,7 +831,7 @@
         <v>34121743</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B13" s="12" t="s">
         <v>12</v>
       </c>
@@ -853,7 +853,7 @@
         <v>105258097</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B14" s="8" t="s">
         <v>13</v>
       </c>
@@ -875,7 +875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B15" s="12" t="s">
         <v>14</v>
       </c>
@@ -897,7 +897,7 @@
         <v>105258097</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B16" s="8" t="s">
         <v>15</v>
       </c>
@@ -919,7 +919,7 @@
         <v>-3447914</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
         <v>16</v>
       </c>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" s="14" t="s">
         <v>17</v>
       </c>
@@ -963,7 +963,7 @@
         <v>101810183</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
         <v>18</v>
       </c>
@@ -985,7 +985,7 @@
         <v>6881416</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" s="8" t="s">
         <v>19</v>
       </c>
@@ -1007,7 +1007,7 @@
         <v>-19151530</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" s="12" t="s">
         <v>20</v>
       </c>
@@ -1029,7 +1029,7 @@
         <v>89540069</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" s="8" t="s">
         <v>21</v>
       </c>
@@ -1051,7 +1051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" s="12" t="s">
         <v>22</v>
       </c>
@@ -1073,7 +1073,7 @@
         <v>89540069</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1083,7 +1083,7 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1093,7 +1093,7 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1103,7 +1103,7 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B27" s="7" t="s">
         <v>23</v>
       </c>
@@ -1125,7 +1125,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1135,7 +1135,7 @@
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B29" s="8" t="s">
         <v>24</v>
       </c>
@@ -1159,7 +1159,7 @@
         <v>2261</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B30" s="10" t="s">
         <v>27</v>
       </c>
@@ -1183,7 +1183,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B31" s="8" t="s">
         <v>28</v>
       </c>
@@ -1207,7 +1207,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B32" s="12" t="s">
         <v>12</v>
       </c>
@@ -1229,7 +1229,7 @@
         <v>2261</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -1239,7 +1239,7 @@
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -1249,7 +1249,7 @@
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -1259,7 +1259,7 @@
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
     </row>
-    <row r="36" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B36" s="7" t="s">
         <v>29</v>
       </c>
@@ -1281,7 +1281,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -1291,7 +1291,7 @@
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B38" s="8" t="s">
         <v>24</v>
       </c>
@@ -1315,7 +1315,7 @@
         <v>1467518</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B39" s="10" t="s">
         <v>27</v>
       </c>
@@ -1339,7 +1339,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B40" s="8" t="s">
         <v>28</v>
       </c>
@@ -1363,7 +1363,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B41" s="12" t="s">
         <v>12</v>
       </c>
@@ -1385,7 +1385,7 @@
         <v>1467518</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -1395,7 +1395,7 @@
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -1405,7 +1405,7 @@
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -1415,7 +1415,7 @@
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
     </row>
-    <row r="45" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B45" s="7" t="s">
         <v>30</v>
       </c>
@@ -1437,7 +1437,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -1447,7 +1447,7 @@
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B47" s="8" t="s">
         <v>24</v>
       </c>
@@ -1471,7 +1471,7 @@
         <v>1440420</v>
       </c>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B48" s="10" t="s">
         <v>27</v>
       </c>
@@ -1495,7 +1495,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B49" s="8" t="s">
         <v>28</v>
       </c>
@@ -1519,7 +1519,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B50" s="12" t="s">
         <v>12</v>
       </c>
@@ -1541,7 +1541,7 @@
         <v>1440420</v>
       </c>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -1551,7 +1551,7 @@
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -1561,7 +1561,7 @@
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -1571,7 +1571,7 @@
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
     </row>
-    <row r="54" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B54" s="7" t="s">
         <v>31</v>
       </c>
@@ -1593,7 +1593,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -1603,7 +1603,7 @@
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B56" s="8" t="s">
         <v>24</v>
       </c>
@@ -1627,7 +1627,7 @@
         <v>29359</v>
       </c>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B57" s="10" t="s">
         <v>27</v>
       </c>
@@ -1651,7 +1651,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B58" s="8" t="s">
         <v>28</v>
       </c>
@@ -1675,7 +1675,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B59" s="12" t="s">
         <v>12</v>
       </c>
@@ -1697,7 +1697,7 @@
         <v>29359</v>
       </c>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -1707,7 +1707,7 @@
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -1717,7 +1717,7 @@
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
@@ -1727,7 +1727,7 @@
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
     </row>
-    <row r="63" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B63" s="7" t="s">
         <v>32</v>
       </c>
@@ -1749,7 +1749,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -1759,7 +1759,7 @@
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B65" s="8" t="s">
         <v>24</v>
       </c>
@@ -1783,7 +1783,7 @@
         <v>64798</v>
       </c>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B66" s="10" t="s">
         <v>27</v>
       </c>
@@ -1807,7 +1807,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B67" s="8" t="s">
         <v>28</v>
       </c>
@@ -1831,7 +1831,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B68" s="12" t="s">
         <v>12</v>
       </c>
@@ -1853,7 +1853,7 @@
         <v>64798</v>
       </c>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
@@ -1863,7 +1863,7 @@
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
@@ -1873,7 +1873,7 @@
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
@@ -1883,7 +1883,7 @@
       <c r="H71" s="1"/>
       <c r="I71" s="1"/>
     </row>
-    <row r="72" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B72" s="7" t="s">
         <v>34</v>
       </c>
@@ -1905,7 +1905,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
@@ -1915,7 +1915,7 @@
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B74" s="8" t="s">
         <v>24</v>
       </c>
@@ -1939,7 +1939,7 @@
         <v>65588262</v>
       </c>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B75" s="10" t="s">
         <v>27</v>
       </c>
@@ -1963,7 +1963,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B76" s="8" t="s">
         <v>28</v>
       </c>
@@ -1987,7 +1987,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B77" s="12" t="s">
         <v>12</v>
       </c>
@@ -2009,7 +2009,7 @@
         <v>65588262</v>
       </c>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
@@ -2019,7 +2019,7 @@
       <c r="H78" s="1"/>
       <c r="I78" s="1"/>
     </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
@@ -2029,7 +2029,7 @@
       <c r="H79" s="1"/>
       <c r="I79" s="1"/>
     </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -2039,7 +2039,7 @@
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
     </row>
-    <row r="81" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B81" s="7" t="s">
         <v>35</v>
       </c>
@@ -2061,7 +2061,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
@@ -2071,7 +2071,7 @@
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
     </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B83" s="8" t="s">
         <v>24</v>
       </c>
@@ -2095,7 +2095,7 @@
         <v>64459074</v>
       </c>
     </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B84" s="10" t="s">
         <v>27</v>
       </c>
@@ -2119,7 +2119,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B85" s="8" t="s">
         <v>28</v>
       </c>
@@ -2143,7 +2143,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B86" s="12" t="s">
         <v>12</v>
       </c>
@@ -2165,7 +2165,7 @@
         <v>64459074</v>
       </c>
     </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
@@ -2175,7 +2175,7 @@
       <c r="H87" s="1"/>
       <c r="I87" s="1"/>
     </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
@@ -2185,7 +2185,7 @@
       <c r="H88" s="1"/>
       <c r="I88" s="1"/>
     </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
@@ -2195,7 +2195,7 @@
       <c r="H89" s="1"/>
       <c r="I89" s="1"/>
     </row>
-    <row r="90" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B90" s="7" t="s">
         <v>36</v>
       </c>
@@ -2217,7 +2217,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
@@ -2227,7 +2227,7 @@
       <c r="H91" s="1"/>
       <c r="I91" s="1"/>
     </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B92" s="8" t="s">
         <v>24</v>
       </c>
@@ -2251,7 +2251,7 @@
         <v>1193986</v>
       </c>
     </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B93" s="10" t="s">
         <v>27</v>
       </c>
@@ -2275,7 +2275,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B94" s="8" t="s">
         <v>28</v>
       </c>
@@ -2299,7 +2299,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B95" s="12" t="s">
         <v>12</v>
       </c>
@@ -2321,7 +2321,7 @@
         <v>1193986</v>
       </c>
     </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
@@ -2331,7 +2331,7 @@
       <c r="H96" s="1"/>
       <c r="I96" s="1"/>
     </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
@@ -2341,7 +2341,7 @@
       <c r="H97" s="1"/>
       <c r="I97" s="1"/>
     </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
@@ -2351,7 +2351,7 @@
       <c r="H98" s="1"/>
       <c r="I98" s="1"/>
     </row>
-    <row r="99" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B99" s="7" t="s">
         <v>37</v>
       </c>
@@ -2373,7 +2373,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
@@ -2383,7 +2383,7 @@
       <c r="H100" s="1"/>
       <c r="I100" s="1"/>
     </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B101" s="8" t="s">
         <v>24</v>
       </c>
@@ -2407,7 +2407,7 @@
         <v>28659000</v>
       </c>
     </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B102" s="10" t="s">
         <v>27</v>
       </c>
@@ -2431,7 +2431,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B103" s="8" t="s">
         <v>28</v>
       </c>
@@ -2455,7 +2455,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
@@ -2465,7 +2465,7 @@
       <c r="H104" s="1"/>
       <c r="I104" s="1"/>
     </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
@@ -2475,7 +2475,7 @@
       <c r="H105" s="1"/>
       <c r="I105" s="1"/>
     </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
@@ -2485,7 +2485,7 @@
       <c r="H106" s="1"/>
       <c r="I106" s="1"/>
     </row>
-    <row r="107" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B107" s="7" t="s">
         <v>39</v>
       </c>
@@ -2507,7 +2507,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
@@ -2517,7 +2517,7 @@
       <c r="H108" s="1"/>
       <c r="I108" s="1"/>
     </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B109" s="8" t="s">
         <v>24</v>
       </c>
@@ -2541,7 +2541,7 @@
         <v>44693327</v>
       </c>
     </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B110" s="10" t="s">
         <v>27</v>
       </c>
@@ -2565,7 +2565,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B111" s="8" t="s">
         <v>28</v>
       </c>
@@ -2589,7 +2589,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
@@ -2599,7 +2599,7 @@
       <c r="H112" s="1"/>
       <c r="I112" s="1"/>
     </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
@@ -2609,7 +2609,7 @@
       <c r="H113" s="1"/>
       <c r="I113" s="1"/>
     </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
@@ -2619,7 +2619,7 @@
       <c r="H114" s="1"/>
       <c r="I114" s="1"/>
     </row>
-    <row r="115" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B115" s="7" t="s">
         <v>40</v>
       </c>
@@ -2641,7 +2641,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
@@ -2651,7 +2651,7 @@
       <c r="H116" s="1"/>
       <c r="I116" s="1"/>
     </row>
-    <row r="117" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B117" s="8" t="s">
         <v>24</v>
       </c>
@@ -2675,7 +2675,7 @@
         <v>44750194</v>
       </c>
     </row>
-    <row r="118" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B118" s="10" t="s">
         <v>27</v>
       </c>
@@ -2699,7 +2699,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="119" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B119" s="8" t="s">
         <v>28</v>
       </c>
@@ -2723,7 +2723,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="120" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
@@ -2733,7 +2733,7 @@
       <c r="H120" s="1"/>
       <c r="I120" s="1"/>
     </row>
-    <row r="121" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="121" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
       <c r="D121" s="1"/>
@@ -2743,7 +2743,7 @@
       <c r="H121" s="1"/>
       <c r="I121" s="1"/>
     </row>
-    <row r="122" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
@@ -2753,7 +2753,7 @@
       <c r="H122" s="1"/>
       <c r="I122" s="1"/>
     </row>
-    <row r="123" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B123" s="7" t="s">
         <v>41</v>
       </c>
@@ -2775,7 +2775,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="124" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="124" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
@@ -2785,7 +2785,7 @@
       <c r="H124" s="1"/>
       <c r="I124" s="1"/>
     </row>
-    <row r="125" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B125" s="8" t="s">
         <v>24</v>
       </c>
@@ -2809,7 +2809,7 @@
         <v>40668483</v>
       </c>
     </row>
-    <row r="126" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="126" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B126" s="10" t="s">
         <v>27</v>
       </c>
@@ -2833,7 +2833,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="127" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="127" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B127" s="8" t="s">
         <v>28</v>
       </c>
@@ -2857,7 +2857,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="128" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
@@ -2867,7 +2867,7 @@
       <c r="H128" s="1"/>
       <c r="I128" s="1"/>
     </row>
-    <row r="129" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
@@ -2877,7 +2877,7 @@
       <c r="H129" s="1"/>
       <c r="I129" s="1"/>
     </row>
-    <row r="130" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="130" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
@@ -2887,7 +2887,7 @@
       <c r="H130" s="1"/>
       <c r="I130" s="1"/>
     </row>
-    <row r="131" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="131" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B131" s="7" t="s">
         <v>42</v>
       </c>
@@ -2909,7 +2909,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="132" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="132" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
@@ -2919,7 +2919,7 @@
       <c r="H132" s="1"/>
       <c r="I132" s="1"/>
     </row>
-    <row r="133" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="133" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B133" s="8" t="s">
         <v>43</v>
       </c>
@@ -2941,7 +2941,7 @@
         <v>1425445</v>
       </c>
     </row>
-    <row r="134" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="134" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B134" s="10" t="s">
         <v>44</v>
       </c>
@@ -2963,7 +2963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="135" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B135" s="8" t="s">
         <v>45</v>
       </c>
@@ -2985,7 +2985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="136" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B136" s="10" t="s">
         <v>46</v>
       </c>
@@ -3007,7 +3007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="137" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B137" s="8" t="s">
         <v>47</v>
       </c>
@@ -3029,7 +3029,7 @@
         <v>11028580</v>
       </c>
     </row>
-    <row r="138" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="138" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B138" s="10" t="s">
         <v>48</v>
       </c>
@@ -3051,7 +3051,7 @@
         <v>11308135</v>
       </c>
     </row>
-    <row r="139" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="139" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B139" s="8" t="s">
         <v>49</v>
       </c>
@@ -3073,7 +3073,7 @@
         <v>2269312</v>
       </c>
     </row>
-    <row r="140" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="140" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B140" s="10" t="s">
         <v>50</v>
       </c>
@@ -3095,7 +3095,7 @@
         <v>1314930</v>
       </c>
     </row>
-    <row r="141" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="141" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B141" s="8" t="s">
         <v>51</v>
       </c>
@@ -3117,7 +3117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="142" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B142" s="10" t="s">
         <v>52</v>
       </c>
@@ -3139,7 +3139,7 @@
         <v>6775341</v>
       </c>
     </row>
-    <row r="143" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="143" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B143" s="14" t="s">
         <v>12</v>
       </c>
@@ -3161,7 +3161,7 @@
         <v>34121743</v>
       </c>
     </row>
-    <row r="147" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="147" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B147" s="7" t="s">
         <v>53</v>
       </c>
@@ -3170,7 +3170,7 @@
       <c r="E147" s="6"/>
       <c r="F147" s="6"/>
     </row>
-    <row r="149" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="149" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B149" s="8" t="s">
         <v>54</v>
       </c>
@@ -3181,7 +3181,7 @@
       <c r="E149" s="9"/>
       <c r="F149" s="9"/>
     </row>
-    <row r="150" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="150" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B150" s="10" t="s">
         <v>56</v>
       </c>

--- a/database/industries/folad/fejahan/cost/yearly.xlsx
+++ b/database/industries/folad/fejahan/cost/yearly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\folad\fejahan\cost\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\folad\fejahan\cost\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD63AE02-5E9C-4A9D-B3F0-9B9681505689}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E24C5BC-DC9A-44BA-B644-DA7A8D703B41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="57">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -34,9 +34,6 @@
     <t>بهای تمام شده</t>
   </si>
   <si>
-    <t>دوازده ماهه منتهی به 1396/12</t>
-  </si>
-  <si>
     <t>دوازده ماهه منتهی به 1397/12</t>
   </si>
   <si>
@@ -47,6 +44,9 @@
   </si>
   <si>
     <t>دوازده ماهه منتهی به 1400/12</t>
+  </si>
+  <si>
+    <t>دوازده ماهه منتهی به 1401/12</t>
   </si>
   <si>
     <t>مواد مستقیم مصرفی</t>
@@ -650,12 +650,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="9" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -665,7 +665,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -677,7 +677,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -689,7 +689,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -699,7 +699,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -711,7 +711,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -723,7 +723,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -733,7 +733,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>3</v>
       </c>
@@ -755,7 +755,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -765,105 +765,105 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9">
-        <v>4957095</v>
+        <v>11306625</v>
       </c>
       <c r="F10" s="9">
-        <v>11306625</v>
+        <v>12282852</v>
       </c>
       <c r="G10" s="9">
-        <v>12282852</v>
+        <v>29416175</v>
       </c>
       <c r="H10" s="9">
-        <v>29416175</v>
+        <v>64459074</v>
       </c>
       <c r="I10" s="9">
-        <v>64459074</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+        <v>52268206</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>10</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
-        <v>190156</v>
+        <v>346999</v>
       </c>
       <c r="F11" s="11">
-        <v>346999</v>
+        <v>1298922</v>
       </c>
       <c r="G11" s="11">
-        <v>1298922</v>
+        <v>3425482</v>
       </c>
       <c r="H11" s="11">
-        <v>3425482</v>
+        <v>1783913</v>
       </c>
       <c r="I11" s="11">
-        <v>6677280</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+        <v>2402834</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9">
-        <v>1155004</v>
+        <v>1746691</v>
       </c>
       <c r="F12" s="9">
-        <v>1746691</v>
+        <v>6945332</v>
       </c>
       <c r="G12" s="9">
-        <v>6945332</v>
+        <v>18073887</v>
       </c>
       <c r="H12" s="9">
-        <v>18073887</v>
+        <v>39015110</v>
       </c>
       <c r="I12" s="9">
-        <v>34121743</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+        <v>48739372</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
       <c r="E13" s="13">
-        <v>6302255</v>
+        <v>13400315</v>
       </c>
       <c r="F13" s="13">
-        <v>13400315</v>
+        <v>20527106</v>
       </c>
       <c r="G13" s="13">
-        <v>20527106</v>
+        <v>50915544</v>
       </c>
       <c r="H13" s="13">
-        <v>50915544</v>
+        <v>105258097</v>
       </c>
       <c r="I13" s="13">
-        <v>105258097</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+        <v>103410412</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
       <c r="E14" s="9">
-        <v>0</v>
+        <v>-125095</v>
       </c>
       <c r="F14" s="9">
-        <v>-125095</v>
+        <v>0</v>
       </c>
       <c r="G14" s="9">
         <v>0</v>
@@ -875,51 +875,51 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
         <v>14</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
       <c r="E15" s="13">
-        <v>6302255</v>
+        <v>13275220</v>
       </c>
       <c r="F15" s="13">
-        <v>13275220</v>
+        <v>20527106</v>
       </c>
       <c r="G15" s="13">
-        <v>20527106</v>
+        <v>50915544</v>
       </c>
       <c r="H15" s="13">
-        <v>50915544</v>
+        <v>105258097</v>
       </c>
       <c r="I15" s="13">
-        <v>105258097</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+        <v>103410412</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
         <v>15</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
       <c r="E16" s="9">
-        <v>126188</v>
+        <v>-157364</v>
       </c>
       <c r="F16" s="9">
-        <v>-157364</v>
+        <v>-1277968</v>
       </c>
       <c r="G16" s="9">
-        <v>-1277968</v>
+        <v>-959061</v>
       </c>
       <c r="H16" s="9">
-        <v>-959061</v>
+        <v>-3447914</v>
       </c>
       <c r="I16" s="9">
-        <v>-3447914</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+        <v>2648773</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>16</v>
       </c>
@@ -941,95 +941,95 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
       <c r="E18" s="15">
-        <v>6428443</v>
+        <v>13117856</v>
       </c>
       <c r="F18" s="15">
-        <v>13117856</v>
+        <v>19249138</v>
       </c>
       <c r="G18" s="15">
-        <v>19249138</v>
+        <v>49956483</v>
       </c>
       <c r="H18" s="15">
-        <v>49956483</v>
+        <v>101810183</v>
       </c>
       <c r="I18" s="15">
-        <v>101810183</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+        <v>106059185</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>18</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
       <c r="E19" s="11">
-        <v>7187</v>
+        <v>183459</v>
       </c>
       <c r="F19" s="11">
-        <v>183459</v>
+        <v>759071</v>
       </c>
       <c r="G19" s="11">
-        <v>759071</v>
+        <v>1416668</v>
       </c>
       <c r="H19" s="11">
-        <v>1416668</v>
+        <v>6881416</v>
       </c>
       <c r="I19" s="11">
-        <v>6881416</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+        <v>19151530</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="8" t="s">
         <v>19</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
       <c r="E20" s="9">
-        <v>-183459</v>
+        <v>-759071</v>
       </c>
       <c r="F20" s="9">
-        <v>-759071</v>
+        <v>-1416668</v>
       </c>
       <c r="G20" s="9">
-        <v>-1416668</v>
+        <v>-6881416</v>
       </c>
       <c r="H20" s="9">
-        <v>-6881416</v>
+        <v>-19151530</v>
       </c>
       <c r="I20" s="9">
-        <v>-19151530</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-13581540</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
         <v>20</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
       <c r="E21" s="13">
-        <v>6252171</v>
+        <v>12542244</v>
       </c>
       <c r="F21" s="13">
-        <v>12542244</v>
+        <v>18591541</v>
       </c>
       <c r="G21" s="13">
-        <v>18591541</v>
+        <v>44491735</v>
       </c>
       <c r="H21" s="13">
-        <v>44491735</v>
+        <v>89540069</v>
       </c>
       <c r="I21" s="13">
-        <v>89540069</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+        <v>111629175</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="8" t="s">
         <v>21</v>
       </c>
@@ -1051,29 +1051,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" s="12" t="s">
         <v>22</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
       <c r="E23" s="13">
-        <v>6252171</v>
+        <v>12542244</v>
       </c>
       <c r="F23" s="13">
-        <v>12542244</v>
+        <v>18591541</v>
       </c>
       <c r="G23" s="13">
-        <v>18591541</v>
+        <v>44491735</v>
       </c>
       <c r="H23" s="13">
-        <v>44491735</v>
+        <v>89540069</v>
       </c>
       <c r="I23" s="13">
-        <v>89540069</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+        <v>111629175</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1083,7 +1083,7 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1093,7 +1093,7 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1103,7 +1103,7 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B27" s="7" t="s">
         <v>23</v>
       </c>
@@ -1125,7 +1125,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1135,7 +1135,7 @@
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B29" s="8" t="s">
         <v>24</v>
       </c>
@@ -1143,23 +1143,23 @@
         <v>25</v>
       </c>
       <c r="D29" s="9"/>
-      <c r="E29" s="9" t="s">
-        <v>26</v>
+      <c r="E29" s="9">
+        <v>213501</v>
       </c>
       <c r="F29" s="9">
-        <v>213501</v>
-      </c>
-      <c r="G29" s="9">
         <v>121398</v>
       </c>
-      <c r="H29" s="9" t="s">
-        <v>26</v>
+      <c r="G29" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H29" s="9">
+        <v>2261</v>
       </c>
       <c r="I29" s="9">
-        <v>2261</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+        <v>29359</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B30" s="10" t="s">
         <v>27</v>
       </c>
@@ -1167,12 +1167,12 @@
         <v>25</v>
       </c>
       <c r="D30" s="11"/>
-      <c r="E30" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F30" s="11">
+      <c r="E30" s="11">
         <v>172</v>
       </c>
+      <c r="F30" s="11" t="s">
+        <v>26</v>
+      </c>
       <c r="G30" s="11" t="s">
         <v>26</v>
       </c>
@@ -1183,7 +1183,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="8" t="s">
         <v>28</v>
       </c>
@@ -1197,39 +1197,39 @@
       <c r="F31" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="G31" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H31" s="9">
+      <c r="G31" s="9">
         <v>39722</v>
       </c>
+      <c r="H31" s="9" t="s">
+        <v>26</v>
+      </c>
       <c r="I31" s="9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C32" s="13"/>
       <c r="D32" s="13"/>
       <c r="E32" s="13">
-        <v>0</v>
+        <v>213673</v>
       </c>
       <c r="F32" s="13">
-        <v>213673</v>
+        <v>121398</v>
       </c>
       <c r="G32" s="13">
-        <v>121398</v>
+        <v>39722</v>
       </c>
       <c r="H32" s="13">
-        <v>39722</v>
+        <v>2261</v>
       </c>
       <c r="I32" s="13">
-        <v>2261</v>
-      </c>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+        <v>29359</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -1239,7 +1239,7 @@
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -1249,7 +1249,7 @@
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -1259,7 +1259,7 @@
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
     </row>
-    <row r="36" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B36" s="7" t="s">
         <v>29</v>
       </c>
@@ -1281,7 +1281,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -1291,7 +1291,7 @@
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B38" s="8" t="s">
         <v>24</v>
       </c>
@@ -1299,23 +1299,23 @@
         <v>25</v>
       </c>
       <c r="D38" s="9"/>
-      <c r="E38" s="9" t="s">
-        <v>26</v>
+      <c r="E38" s="9">
+        <v>1225192</v>
       </c>
       <c r="F38" s="9">
-        <v>1225192</v>
-      </c>
-      <c r="G38" s="9">
         <v>1218818</v>
       </c>
-      <c r="H38" s="9" t="s">
-        <v>26</v>
+      <c r="G38" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H38" s="9">
+        <v>1467518</v>
       </c>
       <c r="I38" s="9">
-        <v>1467518</v>
-      </c>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1946212</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B39" s="10" t="s">
         <v>27</v>
       </c>
@@ -1323,12 +1323,12 @@
         <v>25</v>
       </c>
       <c r="D39" s="11"/>
-      <c r="E39" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F39" s="11">
+      <c r="E39" s="11">
         <v>78485</v>
       </c>
+      <c r="F39" s="11" t="s">
+        <v>26</v>
+      </c>
       <c r="G39" s="11" t="s">
         <v>26</v>
       </c>
@@ -1339,7 +1339,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B40" s="8" t="s">
         <v>28</v>
       </c>
@@ -1353,39 +1353,39 @@
       <c r="F40" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="G40" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H40" s="9">
+      <c r="G40" s="9">
         <v>1371822</v>
       </c>
+      <c r="H40" s="9" t="s">
+        <v>26</v>
+      </c>
       <c r="I40" s="9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B41" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C41" s="13"/>
       <c r="D41" s="13"/>
       <c r="E41" s="13">
-        <v>0</v>
+        <v>1303677</v>
       </c>
       <c r="F41" s="13">
-        <v>1303677</v>
+        <v>1218818</v>
       </c>
       <c r="G41" s="13">
-        <v>1218818</v>
+        <v>1371822</v>
       </c>
       <c r="H41" s="13">
-        <v>1371822</v>
+        <v>1467518</v>
       </c>
       <c r="I41" s="13">
-        <v>1467518</v>
-      </c>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1946212</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -1395,7 +1395,7 @@
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -1405,7 +1405,7 @@
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -1415,7 +1415,7 @@
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
     </row>
-    <row r="45" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B45" s="7" t="s">
         <v>30</v>
       </c>
@@ -1437,7 +1437,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -1447,7 +1447,7 @@
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B47" s="8" t="s">
         <v>24</v>
       </c>
@@ -1455,23 +1455,23 @@
         <v>25</v>
       </c>
       <c r="D47" s="9"/>
-      <c r="E47" s="9" t="s">
-        <v>26</v>
+      <c r="E47" s="9">
+        <v>1320072</v>
       </c>
       <c r="F47" s="9">
-        <v>1320072</v>
-      </c>
-      <c r="G47" s="9">
         <v>1245944</v>
       </c>
-      <c r="H47" s="9" t="s">
-        <v>26</v>
+      <c r="G47" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H47" s="9">
+        <v>1440420</v>
       </c>
       <c r="I47" s="9">
-        <v>1440420</v>
-      </c>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1362781</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B48" s="10" t="s">
         <v>27</v>
       </c>
@@ -1479,12 +1479,12 @@
         <v>25</v>
       </c>
       <c r="D48" s="11"/>
-      <c r="E48" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F48" s="11">
+      <c r="E48" s="11">
         <v>75879</v>
       </c>
+      <c r="F48" s="11" t="s">
+        <v>26</v>
+      </c>
       <c r="G48" s="11" t="s">
         <v>26</v>
       </c>
@@ -1495,7 +1495,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B49" s="8" t="s">
         <v>28</v>
       </c>
@@ -1509,39 +1509,39 @@
       <c r="F49" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="G49" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H49" s="9">
+      <c r="G49" s="9">
         <v>1366765</v>
       </c>
+      <c r="H49" s="9" t="s">
+        <v>26</v>
+      </c>
       <c r="I49" s="9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B50" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C50" s="13"/>
       <c r="D50" s="13"/>
       <c r="E50" s="13">
-        <v>0</v>
+        <v>1395951</v>
       </c>
       <c r="F50" s="13">
-        <v>1395951</v>
+        <v>1245944</v>
       </c>
       <c r="G50" s="13">
-        <v>1245944</v>
+        <v>1366765</v>
       </c>
       <c r="H50" s="13">
-        <v>1366765</v>
+        <v>1440420</v>
       </c>
       <c r="I50" s="13">
-        <v>1440420</v>
-      </c>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1362781</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -1551,7 +1551,7 @@
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -1561,7 +1561,7 @@
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -1571,7 +1571,7 @@
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
     </row>
-    <row r="54" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B54" s="7" t="s">
         <v>31</v>
       </c>
@@ -1593,7 +1593,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -1603,7 +1603,7 @@
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B56" s="8" t="s">
         <v>24</v>
       </c>
@@ -1611,23 +1611,23 @@
         <v>25</v>
       </c>
       <c r="D56" s="9"/>
-      <c r="E56" s="9" t="s">
-        <v>26</v>
+      <c r="E56" s="9">
+        <v>118621</v>
       </c>
       <c r="F56" s="9">
-        <v>118621</v>
-      </c>
-      <c r="G56" s="9">
         <v>94272</v>
       </c>
-      <c r="H56" s="9" t="s">
-        <v>26</v>
+      <c r="G56" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H56" s="9">
+        <v>29359</v>
       </c>
       <c r="I56" s="9">
-        <v>29359</v>
-      </c>
-    </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+        <v>612790</v>
+      </c>
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B57" s="10" t="s">
         <v>27</v>
       </c>
@@ -1635,12 +1635,12 @@
         <v>25</v>
       </c>
       <c r="D57" s="11"/>
-      <c r="E57" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F57" s="11">
+      <c r="E57" s="11">
         <v>2778</v>
       </c>
+      <c r="F57" s="11" t="s">
+        <v>26</v>
+      </c>
       <c r="G57" s="11" t="s">
         <v>26</v>
       </c>
@@ -1651,7 +1651,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B58" s="8" t="s">
         <v>28</v>
       </c>
@@ -1665,39 +1665,39 @@
       <c r="F58" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="G58" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H58" s="9">
+      <c r="G58" s="9">
         <v>44779</v>
       </c>
+      <c r="H58" s="9" t="s">
+        <v>26</v>
+      </c>
       <c r="I58" s="9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B59" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C59" s="13"/>
       <c r="D59" s="13"/>
       <c r="E59" s="13">
-        <v>0</v>
+        <v>121399</v>
       </c>
       <c r="F59" s="13">
-        <v>121399</v>
+        <v>94272</v>
       </c>
       <c r="G59" s="13">
-        <v>94272</v>
+        <v>44779</v>
       </c>
       <c r="H59" s="13">
-        <v>44779</v>
+        <v>29359</v>
       </c>
       <c r="I59" s="13">
-        <v>29359</v>
-      </c>
-    </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+        <v>612790</v>
+      </c>
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -1707,7 +1707,7 @@
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -1717,7 +1717,7 @@
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
@@ -1727,7 +1727,7 @@
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
     </row>
-    <row r="63" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B63" s="7" t="s">
         <v>32</v>
       </c>
@@ -1749,7 +1749,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -1759,7 +1759,7 @@
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B65" s="8" t="s">
         <v>24</v>
       </c>
@@ -1767,23 +1767,23 @@
         <v>33</v>
       </c>
       <c r="D65" s="9"/>
-      <c r="E65" s="9" t="s">
-        <v>26</v>
+      <c r="E65" s="9">
+        <v>739490</v>
       </c>
       <c r="F65" s="9">
-        <v>739490</v>
-      </c>
-      <c r="G65" s="9">
         <v>580560</v>
       </c>
-      <c r="H65" s="9" t="s">
-        <v>26</v>
+      <c r="G65" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H65" s="9">
+        <v>64798</v>
       </c>
       <c r="I65" s="9">
-        <v>64798</v>
-      </c>
-    </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1193986</v>
+      </c>
+    </row>
+    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B66" s="10" t="s">
         <v>27</v>
       </c>
@@ -1791,12 +1791,12 @@
         <v>33</v>
       </c>
       <c r="D66" s="11"/>
-      <c r="E66" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F66" s="11">
+      <c r="E66" s="11">
         <v>3372</v>
       </c>
+      <c r="F66" s="11" t="s">
+        <v>26</v>
+      </c>
       <c r="G66" s="11" t="s">
         <v>26</v>
       </c>
@@ -1807,7 +1807,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B67" s="8" t="s">
         <v>28</v>
       </c>
@@ -1821,39 +1821,39 @@
       <c r="F67" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="G67" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H67" s="9">
+      <c r="G67" s="9">
         <v>429158</v>
       </c>
+      <c r="H67" s="9" t="s">
+        <v>26</v>
+      </c>
       <c r="I67" s="9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B68" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C68" s="13"/>
       <c r="D68" s="13"/>
       <c r="E68" s="13">
-        <v>0</v>
+        <v>742862</v>
       </c>
       <c r="F68" s="13">
-        <v>742862</v>
+        <v>580560</v>
       </c>
       <c r="G68" s="13">
-        <v>580560</v>
+        <v>429158</v>
       </c>
       <c r="H68" s="13">
-        <v>429158</v>
+        <v>64798</v>
       </c>
       <c r="I68" s="13">
-        <v>64798</v>
-      </c>
-    </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1193986</v>
+      </c>
+    </row>
+    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
@@ -1863,7 +1863,7 @@
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
@@ -1873,7 +1873,7 @@
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
@@ -1883,7 +1883,7 @@
       <c r="H71" s="1"/>
       <c r="I71" s="1"/>
     </row>
-    <row r="72" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B72" s="7" t="s">
         <v>34</v>
       </c>
@@ -1905,7 +1905,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
@@ -1915,7 +1915,7 @@
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B74" s="8" t="s">
         <v>24</v>
       </c>
@@ -1923,23 +1923,23 @@
         <v>33</v>
       </c>
       <c r="D74" s="9"/>
-      <c r="E74" s="9" t="s">
-        <v>26</v>
+      <c r="E74" s="9">
+        <v>8811914</v>
       </c>
       <c r="F74" s="9">
-        <v>8811914</v>
-      </c>
-      <c r="G74" s="9">
         <v>12416924</v>
       </c>
-      <c r="H74" s="9" t="s">
-        <v>26</v>
+      <c r="G74" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H74" s="9">
+        <v>65588262</v>
       </c>
       <c r="I74" s="9">
-        <v>65588262</v>
-      </c>
-    </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
+        <v>73249602</v>
+      </c>
+    </row>
+    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B75" s="10" t="s">
         <v>27</v>
       </c>
@@ -1947,12 +1947,12 @@
         <v>33</v>
       </c>
       <c r="D75" s="11"/>
-      <c r="E75" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F75" s="11">
+      <c r="E75" s="11">
         <v>2332408</v>
       </c>
+      <c r="F75" s="11" t="s">
+        <v>26</v>
+      </c>
       <c r="G75" s="11" t="s">
         <v>26</v>
       </c>
@@ -1963,7 +1963,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B76" s="8" t="s">
         <v>28</v>
       </c>
@@ -1977,39 +1977,39 @@
       <c r="F76" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="G76" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H76" s="9">
+      <c r="G76" s="9">
         <v>29251895</v>
       </c>
+      <c r="H76" s="9" t="s">
+        <v>26</v>
+      </c>
       <c r="I76" s="9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B77" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C77" s="13"/>
       <c r="D77" s="13"/>
       <c r="E77" s="13">
-        <v>0</v>
+        <v>11144322</v>
       </c>
       <c r="F77" s="13">
-        <v>11144322</v>
+        <v>12416924</v>
       </c>
       <c r="G77" s="13">
-        <v>12416924</v>
+        <v>29251895</v>
       </c>
       <c r="H77" s="13">
-        <v>29251895</v>
+        <v>65588262</v>
       </c>
       <c r="I77" s="13">
-        <v>65588262</v>
-      </c>
-    </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+        <v>73249602</v>
+      </c>
+    </row>
+    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
@@ -2019,7 +2019,7 @@
       <c r="H78" s="1"/>
       <c r="I78" s="1"/>
     </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
@@ -2029,7 +2029,7 @@
       <c r="H79" s="1"/>
       <c r="I79" s="1"/>
     </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -2039,7 +2039,7 @@
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
     </row>
-    <row r="81" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B81" s="7" t="s">
         <v>35</v>
       </c>
@@ -2061,7 +2061,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
@@ -2071,7 +2071,7 @@
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
     </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B83" s="8" t="s">
         <v>24</v>
       </c>
@@ -2079,23 +2079,23 @@
         <v>33</v>
       </c>
       <c r="D83" s="9"/>
-      <c r="E83" s="9" t="s">
-        <v>26</v>
+      <c r="E83" s="9">
+        <v>9059075</v>
       </c>
       <c r="F83" s="9">
-        <v>9059075</v>
-      </c>
-      <c r="G83" s="9">
         <v>12282852</v>
       </c>
-      <c r="H83" s="9" t="s">
-        <v>26</v>
+      <c r="G83" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H83" s="9">
+        <v>64459074</v>
       </c>
       <c r="I83" s="9">
-        <v>64459074</v>
-      </c>
-    </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
+        <v>52268206</v>
+      </c>
+    </row>
+    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B84" s="10" t="s">
         <v>27</v>
       </c>
@@ -2103,12 +2103,12 @@
         <v>33</v>
       </c>
       <c r="D84" s="11"/>
-      <c r="E84" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F84" s="11">
+      <c r="E84" s="11">
         <v>2247550</v>
       </c>
+      <c r="F84" s="11" t="s">
+        <v>26</v>
+      </c>
       <c r="G84" s="11" t="s">
         <v>26</v>
       </c>
@@ -2119,7 +2119,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B85" s="8" t="s">
         <v>28</v>
       </c>
@@ -2133,39 +2133,39 @@
       <c r="F85" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="G85" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H85" s="9">
+      <c r="G85" s="9">
         <v>29416175</v>
       </c>
+      <c r="H85" s="9" t="s">
+        <v>26</v>
+      </c>
       <c r="I85" s="9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B86" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C86" s="13"/>
       <c r="D86" s="13"/>
       <c r="E86" s="13">
-        <v>0</v>
+        <v>11306625</v>
       </c>
       <c r="F86" s="13">
-        <v>11306625</v>
+        <v>12282852</v>
       </c>
       <c r="G86" s="13">
-        <v>12282852</v>
+        <v>29416175</v>
       </c>
       <c r="H86" s="13">
-        <v>29416175</v>
+        <v>64459074</v>
       </c>
       <c r="I86" s="13">
-        <v>64459074</v>
-      </c>
-    </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
+        <v>52268206</v>
+      </c>
+    </row>
+    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
@@ -2175,7 +2175,7 @@
       <c r="H87" s="1"/>
       <c r="I87" s="1"/>
     </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
@@ -2185,7 +2185,7 @@
       <c r="H88" s="1"/>
       <c r="I88" s="1"/>
     </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
@@ -2195,7 +2195,7 @@
       <c r="H89" s="1"/>
       <c r="I89" s="1"/>
     </row>
-    <row r="90" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B90" s="7" t="s">
         <v>36</v>
       </c>
@@ -2217,7 +2217,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
@@ -2227,7 +2227,7 @@
       <c r="H91" s="1"/>
       <c r="I91" s="1"/>
     </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B92" s="8" t="s">
         <v>24</v>
       </c>
@@ -2235,23 +2235,23 @@
         <v>33</v>
       </c>
       <c r="D92" s="9"/>
-      <c r="E92" s="9" t="s">
-        <v>26</v>
+      <c r="E92" s="9">
+        <v>492329</v>
       </c>
       <c r="F92" s="9">
-        <v>492329</v>
-      </c>
-      <c r="G92" s="9">
         <v>714632</v>
       </c>
-      <c r="H92" s="9" t="s">
-        <v>26</v>
+      <c r="G92" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H92" s="9">
+        <v>1193986</v>
       </c>
       <c r="I92" s="9">
-        <v>1193986</v>
-      </c>
-    </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
+        <v>22175382</v>
+      </c>
+    </row>
+    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B93" s="10" t="s">
         <v>27</v>
       </c>
@@ -2259,12 +2259,12 @@
         <v>33</v>
       </c>
       <c r="D93" s="11"/>
-      <c r="E93" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F93" s="11">
+      <c r="E93" s="11">
         <v>88230</v>
       </c>
+      <c r="F93" s="11" t="s">
+        <v>26</v>
+      </c>
       <c r="G93" s="11" t="s">
         <v>26</v>
       </c>
@@ -2275,7 +2275,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B94" s="8" t="s">
         <v>28</v>
       </c>
@@ -2289,39 +2289,39 @@
       <c r="F94" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="G94" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H94" s="9">
+      <c r="G94" s="9">
         <v>264878</v>
       </c>
+      <c r="H94" s="9" t="s">
+        <v>26</v>
+      </c>
       <c r="I94" s="9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B95" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C95" s="13"/>
       <c r="D95" s="13"/>
       <c r="E95" s="13">
-        <v>0</v>
+        <v>580559</v>
       </c>
       <c r="F95" s="13">
-        <v>580559</v>
+        <v>714632</v>
       </c>
       <c r="G95" s="13">
-        <v>714632</v>
+        <v>264878</v>
       </c>
       <c r="H95" s="13">
-        <v>264878</v>
+        <v>1193986</v>
       </c>
       <c r="I95" s="13">
-        <v>1193986</v>
-      </c>
-    </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.25">
+        <v>22175382</v>
+      </c>
+    </row>
+    <row r="96" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
@@ -2331,7 +2331,7 @@
       <c r="H96" s="1"/>
       <c r="I96" s="1"/>
     </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
@@ -2341,7 +2341,7 @@
       <c r="H97" s="1"/>
       <c r="I97" s="1"/>
     </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
@@ -2351,7 +2351,7 @@
       <c r="H98" s="1"/>
       <c r="I98" s="1"/>
     </row>
-    <row r="99" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B99" s="7" t="s">
         <v>37</v>
       </c>
@@ -2373,7 +2373,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
@@ -2383,7 +2383,7 @@
       <c r="H100" s="1"/>
       <c r="I100" s="1"/>
     </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B101" s="8" t="s">
         <v>24</v>
       </c>
@@ -2391,23 +2391,23 @@
         <v>38</v>
       </c>
       <c r="D101" s="9"/>
-      <c r="E101" s="9" t="s">
-        <v>26</v>
+      <c r="E101" s="9">
+        <v>3463637</v>
       </c>
       <c r="F101" s="9">
-        <v>3463637</v>
-      </c>
-      <c r="G101" s="9">
         <v>4782286</v>
       </c>
-      <c r="H101" s="9" t="s">
-        <v>26</v>
+      <c r="G101" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H101" s="9">
+        <v>28659000</v>
       </c>
       <c r="I101" s="9">
-        <v>28659000</v>
-      </c>
-    </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.25">
+        <v>40668483</v>
+      </c>
+    </row>
+    <row r="102" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B102" s="10" t="s">
         <v>27</v>
       </c>
@@ -2415,12 +2415,12 @@
         <v>38</v>
       </c>
       <c r="D102" s="11"/>
-      <c r="E102" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F102" s="11">
+      <c r="E102" s="11">
         <v>19604651</v>
       </c>
+      <c r="F102" s="11" t="s">
+        <v>26</v>
+      </c>
       <c r="G102" s="11" t="s">
         <v>26</v>
       </c>
@@ -2431,7 +2431,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B103" s="8" t="s">
         <v>28</v>
       </c>
@@ -2445,17 +2445,17 @@
       <c r="F103" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="G103" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H103" s="9">
+      <c r="G103" s="9">
         <v>10804038</v>
       </c>
+      <c r="H103" s="9" t="s">
+        <v>26</v>
+      </c>
       <c r="I103" s="9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
@@ -2465,7 +2465,7 @@
       <c r="H104" s="1"/>
       <c r="I104" s="1"/>
     </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
@@ -2475,7 +2475,7 @@
       <c r="H105" s="1"/>
       <c r="I105" s="1"/>
     </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
@@ -2485,7 +2485,7 @@
       <c r="H106" s="1"/>
       <c r="I106" s="1"/>
     </row>
-    <row r="107" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B107" s="7" t="s">
         <v>39</v>
       </c>
@@ -2507,7 +2507,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
@@ -2517,7 +2517,7 @@
       <c r="H108" s="1"/>
       <c r="I108" s="1"/>
     </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B109" s="8" t="s">
         <v>24</v>
       </c>
@@ -2525,23 +2525,23 @@
         <v>38</v>
       </c>
       <c r="D109" s="9"/>
-      <c r="E109" s="9" t="s">
-        <v>26</v>
+      <c r="E109" s="9">
+        <v>7192272</v>
       </c>
       <c r="F109" s="9">
-        <v>7192272</v>
-      </c>
-      <c r="G109" s="9">
         <v>10187677</v>
       </c>
-      <c r="H109" s="9" t="s">
-        <v>26</v>
+      <c r="G109" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H109" s="9">
+        <v>44693327</v>
       </c>
       <c r="I109" s="9">
-        <v>44693327</v>
-      </c>
-    </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.25">
+        <v>37637011</v>
+      </c>
+    </row>
+    <row r="110" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B110" s="10" t="s">
         <v>27</v>
       </c>
@@ -2549,12 +2549,12 @@
         <v>38</v>
       </c>
       <c r="D110" s="11"/>
-      <c r="E110" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F110" s="11">
+      <c r="E110" s="11">
         <v>29717882</v>
       </c>
+      <c r="F110" s="11" t="s">
+        <v>26</v>
+      </c>
       <c r="G110" s="11" t="s">
         <v>26</v>
       </c>
@@ -2565,7 +2565,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B111" s="8" t="s">
         <v>28</v>
       </c>
@@ -2579,17 +2579,17 @@
       <c r="F111" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="G111" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H111" s="9">
+      <c r="G111" s="9">
         <v>21323390</v>
       </c>
+      <c r="H111" s="9" t="s">
+        <v>26</v>
+      </c>
       <c r="I111" s="9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
@@ -2599,7 +2599,7 @@
       <c r="H112" s="1"/>
       <c r="I112" s="1"/>
     </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
@@ -2609,7 +2609,7 @@
       <c r="H113" s="1"/>
       <c r="I113" s="1"/>
     </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
@@ -2619,7 +2619,7 @@
       <c r="H114" s="1"/>
       <c r="I114" s="1"/>
     </row>
-    <row r="115" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B115" s="7" t="s">
         <v>40</v>
       </c>
@@ -2641,7 +2641,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
@@ -2651,7 +2651,7 @@
       <c r="H116" s="1"/>
       <c r="I116" s="1"/>
     </row>
-    <row r="117" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B117" s="8" t="s">
         <v>24</v>
       </c>
@@ -2659,23 +2659,23 @@
         <v>38</v>
       </c>
       <c r="D117" s="9"/>
-      <c r="E117" s="9" t="s">
-        <v>26</v>
+      <c r="E117" s="9">
+        <v>6862561</v>
       </c>
       <c r="F117" s="9">
-        <v>6862561</v>
-      </c>
-      <c r="G117" s="9">
         <v>9858270</v>
       </c>
-      <c r="H117" s="9" t="s">
-        <v>26</v>
+      <c r="G117" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H117" s="9">
+        <v>44750194</v>
       </c>
       <c r="I117" s="9">
-        <v>44750194</v>
-      </c>
-    </row>
-    <row r="118" spans="2:9" x14ac:dyDescent="0.25">
+        <v>38354076</v>
+      </c>
+    </row>
+    <row r="118" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B118" s="10" t="s">
         <v>27</v>
       </c>
@@ -2683,12 +2683,12 @@
         <v>38</v>
       </c>
       <c r="D118" s="11"/>
-      <c r="E118" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F118" s="11">
+      <c r="E118" s="11">
         <v>29620185</v>
       </c>
+      <c r="F118" s="11" t="s">
+        <v>26</v>
+      </c>
       <c r="G118" s="11" t="s">
         <v>26</v>
       </c>
@@ -2699,7 +2699,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="119" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B119" s="8" t="s">
         <v>28</v>
       </c>
@@ -2713,17 +2713,17 @@
       <c r="F119" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="G119" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H119" s="9">
+      <c r="G119" s="9">
         <v>21522482</v>
       </c>
+      <c r="H119" s="9" t="s">
+        <v>26</v>
+      </c>
       <c r="I119" s="9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="120" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
@@ -2733,7 +2733,7 @@
       <c r="H120" s="1"/>
       <c r="I120" s="1"/>
     </row>
-    <row r="121" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
       <c r="D121" s="1"/>
@@ -2743,7 +2743,7 @@
       <c r="H121" s="1"/>
       <c r="I121" s="1"/>
     </row>
-    <row r="122" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
@@ -2753,7 +2753,7 @@
       <c r="H122" s="1"/>
       <c r="I122" s="1"/>
     </row>
-    <row r="123" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B123" s="7" t="s">
         <v>41</v>
       </c>
@@ -2775,7 +2775,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="124" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
@@ -2785,7 +2785,7 @@
       <c r="H124" s="1"/>
       <c r="I124" s="1"/>
     </row>
-    <row r="125" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B125" s="8" t="s">
         <v>24</v>
       </c>
@@ -2793,23 +2793,23 @@
         <v>25</v>
       </c>
       <c r="D125" s="9"/>
-      <c r="E125" s="9" t="s">
-        <v>26</v>
+      <c r="E125" s="9">
+        <v>4150437</v>
       </c>
       <c r="F125" s="9">
-        <v>4150437</v>
-      </c>
-      <c r="G125" s="9">
         <v>7580533</v>
       </c>
-      <c r="H125" s="9" t="s">
-        <v>26</v>
+      <c r="G125" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H125" s="9">
+        <v>40668483</v>
       </c>
       <c r="I125" s="9">
-        <v>40668483</v>
-      </c>
-    </row>
-    <row r="126" spans="2:9" x14ac:dyDescent="0.25">
+        <v>36187572</v>
+      </c>
+    </row>
+    <row r="126" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B126" s="10" t="s">
         <v>27</v>
       </c>
@@ -2817,12 +2817,12 @@
         <v>25</v>
       </c>
       <c r="D126" s="11"/>
-      <c r="E126" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F126" s="11">
+      <c r="E126" s="11">
         <v>31760259</v>
       </c>
+      <c r="F126" s="11" t="s">
+        <v>26</v>
+      </c>
       <c r="G126" s="11" t="s">
         <v>26</v>
       </c>
@@ -2833,7 +2833,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="127" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B127" s="8" t="s">
         <v>28</v>
       </c>
@@ -2847,17 +2847,17 @@
       <c r="F127" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="G127" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H127" s="9">
+      <c r="G127" s="9">
         <v>5915228</v>
       </c>
+      <c r="H127" s="9" t="s">
+        <v>26</v>
+      </c>
       <c r="I127" s="9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="128" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
@@ -2867,7 +2867,7 @@
       <c r="H128" s="1"/>
       <c r="I128" s="1"/>
     </row>
-    <row r="129" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
@@ -2877,7 +2877,7 @@
       <c r="H129" s="1"/>
       <c r="I129" s="1"/>
     </row>
-    <row r="130" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
@@ -2887,7 +2887,7 @@
       <c r="H130" s="1"/>
       <c r="I130" s="1"/>
     </row>
-    <row r="131" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B131" s="7" t="s">
         <v>42</v>
       </c>
@@ -2909,7 +2909,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="132" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
@@ -2919,7 +2919,7 @@
       <c r="H132" s="1"/>
       <c r="I132" s="1"/>
     </row>
-    <row r="133" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B133" s="8" t="s">
         <v>43</v>
       </c>
@@ -2929,19 +2929,19 @@
         <v>0</v>
       </c>
       <c r="F133" s="9">
-        <v>0</v>
+        <v>166803</v>
       </c>
       <c r="G133" s="9">
-        <v>166803</v>
+        <v>755090</v>
       </c>
       <c r="H133" s="9">
-        <v>755090</v>
+        <v>1425445</v>
       </c>
       <c r="I133" s="9">
-        <v>1425445</v>
-      </c>
-    </row>
-    <row r="134" spans="2:9" x14ac:dyDescent="0.25">
+        <v>2557922</v>
+      </c>
+    </row>
+    <row r="134" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B134" s="10" t="s">
         <v>44</v>
       </c>
@@ -2963,7 +2963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B135" s="8" t="s">
         <v>45</v>
       </c>
@@ -2985,7 +2985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B136" s="10" t="s">
         <v>46</v>
       </c>
@@ -3007,95 +3007,95 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B137" s="8" t="s">
         <v>47</v>
       </c>
       <c r="C137" s="9"/>
       <c r="D137" s="9"/>
       <c r="E137" s="9">
-        <v>8121</v>
+        <v>13428</v>
       </c>
       <c r="F137" s="9">
-        <v>13428</v>
+        <v>3400171</v>
       </c>
       <c r="G137" s="9">
-        <v>3400171</v>
+        <v>9390459</v>
       </c>
       <c r="H137" s="9">
-        <v>9390459</v>
+        <v>9807502</v>
       </c>
       <c r="I137" s="9">
-        <v>11028580</v>
-      </c>
-    </row>
-    <row r="138" spans="2:9" x14ac:dyDescent="0.25">
+        <v>13999107</v>
+      </c>
+    </row>
+    <row r="138" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B138" s="10" t="s">
         <v>48</v>
       </c>
       <c r="C138" s="11"/>
       <c r="D138" s="11"/>
       <c r="E138" s="11">
-        <v>620246</v>
+        <v>826994</v>
       </c>
       <c r="F138" s="11">
-        <v>826994</v>
+        <v>1622021</v>
       </c>
       <c r="G138" s="11">
-        <v>1622021</v>
+        <v>2805838</v>
       </c>
       <c r="H138" s="11">
-        <v>2805838</v>
+        <v>11308135</v>
       </c>
       <c r="I138" s="11">
-        <v>11308135</v>
-      </c>
-    </row>
-    <row r="139" spans="2:9" x14ac:dyDescent="0.25">
+        <v>13967791</v>
+      </c>
+    </row>
+    <row r="139" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B139" s="8" t="s">
         <v>49</v>
       </c>
       <c r="C139" s="9"/>
       <c r="D139" s="9"/>
       <c r="E139" s="9">
-        <v>290942</v>
+        <v>420444</v>
       </c>
       <c r="F139" s="9">
-        <v>420444</v>
+        <v>728983</v>
       </c>
       <c r="G139" s="9">
-        <v>728983</v>
+        <v>2075469</v>
       </c>
       <c r="H139" s="9">
-        <v>2075469</v>
+        <v>2269312</v>
       </c>
       <c r="I139" s="9">
-        <v>2269312</v>
-      </c>
-    </row>
-    <row r="140" spans="2:9" x14ac:dyDescent="0.25">
+        <v>2275856</v>
+      </c>
+    </row>
+    <row r="140" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B140" s="10" t="s">
         <v>50</v>
       </c>
       <c r="C140" s="11"/>
       <c r="D140" s="11"/>
       <c r="E140" s="11">
-        <v>98174</v>
+        <v>176225</v>
       </c>
       <c r="F140" s="11">
-        <v>176225</v>
+        <v>463254</v>
       </c>
       <c r="G140" s="11">
-        <v>463254</v>
+        <v>714055</v>
       </c>
       <c r="H140" s="11">
-        <v>714055</v>
+        <v>1314930</v>
       </c>
       <c r="I140" s="11">
-        <v>1314930</v>
-      </c>
-    </row>
-    <row r="141" spans="2:9" x14ac:dyDescent="0.25">
+        <v>2405694</v>
+      </c>
+    </row>
+    <row r="141" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B141" s="8" t="s">
         <v>51</v>
       </c>
@@ -3117,51 +3117,51 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B142" s="10" t="s">
         <v>52</v>
       </c>
       <c r="C142" s="11"/>
       <c r="D142" s="11"/>
       <c r="E142" s="11">
-        <v>137521</v>
+        <v>309600</v>
       </c>
       <c r="F142" s="11">
-        <v>309600</v>
+        <v>564100</v>
       </c>
       <c r="G142" s="11">
-        <v>564100</v>
+        <v>2332976</v>
       </c>
       <c r="H142" s="11">
-        <v>2332976</v>
+        <v>12889786</v>
       </c>
       <c r="I142" s="11">
-        <v>6775341</v>
-      </c>
-    </row>
-    <row r="143" spans="2:9" x14ac:dyDescent="0.25">
+        <v>13533002</v>
+      </c>
+    </row>
+    <row r="143" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B143" s="14" t="s">
         <v>12</v>
       </c>
       <c r="C143" s="15"/>
       <c r="D143" s="15"/>
       <c r="E143" s="15">
-        <v>1155004</v>
+        <v>1746691</v>
       </c>
       <c r="F143" s="15">
-        <v>1746691</v>
+        <v>6945332</v>
       </c>
       <c r="G143" s="15">
-        <v>6945332</v>
+        <v>18073887</v>
       </c>
       <c r="H143" s="15">
-        <v>18073887</v>
+        <v>39015110</v>
       </c>
       <c r="I143" s="15">
-        <v>34121743</v>
-      </c>
-    </row>
-    <row r="147" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+        <v>48739372</v>
+      </c>
+    </row>
+    <row r="147" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B147" s="7" t="s">
         <v>53</v>
       </c>
@@ -3170,7 +3170,7 @@
       <c r="E147" s="6"/>
       <c r="F147" s="6"/>
     </row>
-    <row r="149" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B149" s="8" t="s">
         <v>54</v>
       </c>
@@ -3181,7 +3181,7 @@
       <c r="E149" s="9"/>
       <c r="F149" s="9"/>
     </row>
-    <row r="150" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B150" s="10" t="s">
         <v>56</v>
       </c>
